--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_6.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_24</t>
+          <t>model_4_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9885618363492505</v>
+        <v>0.9715987684266447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8315350698038275</v>
+        <v>0.6516987158928997</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9578552285449201</v>
+        <v>0.9442250654350188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9759141582175471</v>
+        <v>0.7888514218833345</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9730814607980143</v>
+        <v>0.8624801632190979</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0764870530004627</v>
+        <v>0.1899191663066731</v>
       </c>
       <c r="H2" t="n">
-        <v>1.126525763931483</v>
+        <v>2.329092290604125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2736790041909191</v>
+        <v>0.202233955959162</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2043646543655641</v>
+        <v>0.8536312008060317</v>
       </c>
       <c r="K2" t="n">
-        <v>0.239021806067277</v>
+        <v>0.527932571967066</v>
       </c>
       <c r="L2" t="n">
-        <v>1.078533246575799</v>
+        <v>0.6995726845667857</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2765629277406187</v>
+        <v>0.435797161884601</v>
       </c>
       <c r="N2" t="n">
-        <v>1.007419349395081</v>
+        <v>1.018422420480014</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2883367841387211</v>
+        <v>0.4543499492905186</v>
       </c>
       <c r="P2" t="n">
-        <v>127.1412675885934</v>
+        <v>125.3223134756767</v>
       </c>
       <c r="Q2" t="n">
-        <v>201.4926929055536</v>
+        <v>199.6737387926369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_23</t>
+          <t>model_4_6_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9885620770596332</v>
+        <v>0.9708053619749994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8315336396489778</v>
+        <v>0.6515431284929931</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9578573747459003</v>
+        <v>0.9367449989299176</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9759137132173678</v>
+        <v>0.7811617557890729</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9730820261774162</v>
+        <v>0.8548987119574731</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07648544336902534</v>
+        <v>0.1952246789021259</v>
       </c>
       <c r="H3" t="n">
-        <v>1.126535327383548</v>
+        <v>2.330132704263715</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2736650672272868</v>
+        <v>0.2293558782341553</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2043684301234828</v>
+        <v>0.8847189730296982</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2390167858094997</v>
+        <v>0.5570374280917088</v>
       </c>
       <c r="L3" t="n">
-        <v>1.078486501849086</v>
+        <v>0.712617821489073</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2765600176616738</v>
+        <v>0.4418423688399811</v>
       </c>
       <c r="N3" t="n">
-        <v>1.007419193258616</v>
+        <v>1.018937062502703</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2883337501716908</v>
+        <v>0.4606525132212928</v>
       </c>
       <c r="P3" t="n">
-        <v>127.1413096780271</v>
+        <v>125.2672083683854</v>
       </c>
       <c r="Q3" t="n">
-        <v>201.4927349949873</v>
+        <v>199.6186336853457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_22</t>
+          <t>model_4_6_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9885626135706038</v>
+        <v>0.9699650639549127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.831530339851497</v>
+        <v>0.6512805255861904</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9578621789000833</v>
+        <v>0.9297328763834094</v>
       </c>
       <c r="E4" t="n">
-        <v>0.975912711214742</v>
+        <v>0.7737498931376033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9730833093723441</v>
+        <v>0.8476845334365721</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07648185571769432</v>
+        <v>0.2008437556316627</v>
       </c>
       <c r="H4" t="n">
-        <v>1.126557393144496</v>
+        <v>2.33188873111068</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2736338700920936</v>
+        <v>0.2547810856917923</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2043769319612901</v>
+        <v>0.9146836418511359</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2390053917451012</v>
+        <v>0.5847323404063354</v>
       </c>
       <c r="L4" t="n">
-        <v>1.078383997127233</v>
+        <v>0.7263045301786692</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2765535313780938</v>
+        <v>0.4481559501241311</v>
       </c>
       <c r="N4" t="n">
-        <v>1.0074188452515</v>
+        <v>1.019482120677895</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2883269877535903</v>
+        <v>0.4672348767316241</v>
       </c>
       <c r="P4" t="n">
-        <v>127.1414034928843</v>
+        <v>125.2104560167411</v>
       </c>
       <c r="Q4" t="n">
-        <v>201.4928288098446</v>
+        <v>199.5618813337014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_21</t>
+          <t>model_4_6_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9885629179101858</v>
+        <v>0.9691239832090173</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8315283979484392</v>
+        <v>0.6509537975238502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9578651587248823</v>
+        <v>0.9233455456587722</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9759119519973241</v>
+        <v>0.7667274130315413</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9730840320662019</v>
+        <v>0.8409704290915135</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07647982059750834</v>
+        <v>0.2064680664522859</v>
       </c>
       <c r="H5" t="n">
-        <v>1.126570378659185</v>
+        <v>2.334073563167993</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2736145197562037</v>
+        <v>0.2779408647312091</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2043833738040375</v>
+        <v>0.9430741154173938</v>
       </c>
       <c r="K5" t="n">
-        <v>0.238998974621578</v>
+        <v>0.6105074900743015</v>
       </c>
       <c r="L5" t="n">
-        <v>1.078326908116441</v>
+        <v>0.7400880496358934</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2765498519209662</v>
+        <v>0.4543875729509841</v>
       </c>
       <c r="N5" t="n">
-        <v>1.007418647842042</v>
+        <v>1.020027686567124</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2883231516543553</v>
+        <v>0.4737317926434538</v>
       </c>
       <c r="P5" t="n">
-        <v>127.1414567119712</v>
+        <v>125.1552190408338</v>
       </c>
       <c r="Q5" t="n">
-        <v>201.4928820289315</v>
+        <v>199.506644357794</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_20</t>
+          <t>model_4_6_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9885632853244123</v>
+        <v>0.9683099663226648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8315262410480836</v>
+        <v>0.6505916428193458</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9578683532609326</v>
+        <v>0.9176362335528268</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9759113440182029</v>
+        <v>0.7601513198425953</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9730849102345025</v>
+        <v>0.8348115848642964</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07647736369688357</v>
+        <v>0.2119114011195286</v>
       </c>
       <c r="H6" t="n">
-        <v>1.126584801861795</v>
+        <v>2.336495293344583</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2735937751320211</v>
+        <v>0.2986422206717649</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2043885324131531</v>
+        <v>0.9696599365276393</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2389911769706108</v>
+        <v>0.6341510207047188</v>
       </c>
       <c r="L6" t="n">
-        <v>1.078253879878511</v>
+        <v>0.7536426957723235</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2765454098279043</v>
+        <v>0.4603383550384744</v>
       </c>
       <c r="N6" t="n">
-        <v>1.0074184095193</v>
+        <v>1.020555697520434</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2883185204521954</v>
+        <v>0.4799359118442257</v>
       </c>
       <c r="P6" t="n">
-        <v>127.1415209626473</v>
+        <v>125.1031740218204</v>
       </c>
       <c r="Q6" t="n">
-        <v>201.4929462796075</v>
+        <v>199.4545993387807</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_19</t>
+          <t>model_4_6_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.988563704986437</v>
+        <v>0.9675387697466707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8315238388218789</v>
+        <v>0.6502133049089209</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9578719366433732</v>
+        <v>0.9125948502052232</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9759107020980217</v>
+        <v>0.7540465879256188</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9730859180303273</v>
+        <v>0.8292163277426103</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07647455741499272</v>
+        <v>0.2170683961742343</v>
       </c>
       <c r="H7" t="n">
-        <v>1.126600865559487</v>
+        <v>2.33902524069368</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2735705054237249</v>
+        <v>0.3169217382694891</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2043939790069295</v>
+        <v>0.9943401388921004</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2389822282986045</v>
+        <v>0.6556309653600847</v>
       </c>
       <c r="L7" t="n">
-        <v>1.078178533215742</v>
+        <v>0.7666946267729315</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2765403359638386</v>
+        <v>0.4659059949970963</v>
       </c>
       <c r="N7" t="n">
-        <v>1.007418137306095</v>
+        <v>1.021055933137295</v>
       </c>
       <c r="O7" t="n">
-        <v>0.288313230583232</v>
+        <v>0.4857405777624897</v>
       </c>
       <c r="P7" t="n">
-        <v>127.1415943525563</v>
+        <v>125.055085570721</v>
       </c>
       <c r="Q7" t="n">
-        <v>201.4930196695165</v>
+        <v>199.4065108876813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_18</t>
+          <t>model_4_6_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9885641443614495</v>
+        <v>0.9668182414465374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.831521162344669</v>
+        <v>0.6498317991416483</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9578759532403885</v>
+        <v>0.908177880875822</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9759098337853629</v>
+        <v>0.7484131239716343</v>
       </c>
       <c r="F8" t="n">
-        <v>0.973086970324028</v>
+        <v>0.8241641027152671</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07647161931226089</v>
+        <v>0.2218865722349536</v>
       </c>
       <c r="H8" t="n">
-        <v>1.126618763174913</v>
+        <v>2.341576371516104</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2735444225139483</v>
+        <v>0.3329371973247466</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2044013465059771</v>
+        <v>1.017115099740193</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2389728845099627</v>
+        <v>0.6750262338193629</v>
       </c>
       <c r="L8" t="n">
-        <v>1.078091718904393</v>
+        <v>0.7791078312370777</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2765350236629366</v>
+        <v>0.4710483756844445</v>
       </c>
       <c r="N8" t="n">
-        <v>1.007417852306087</v>
+        <v>1.021523302845489</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2883076921266826</v>
+        <v>0.4911018802418938</v>
       </c>
       <c r="P8" t="n">
-        <v>127.1416711927309</v>
+        <v>125.0111779271213</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.4930965096911</v>
+        <v>199.3626032440816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_17</t>
+          <t>model_4_6_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9885651790533061</v>
+        <v>0.9661514590583268</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8315149307648342</v>
+        <v>0.6494560087024142</v>
       </c>
       <c r="D9" t="n">
-        <v>0.957885253511105</v>
+        <v>0.9043263154892676</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9759079272421304</v>
+        <v>0.7432386025863693</v>
       </c>
       <c r="F9" t="n">
-        <v>0.973089457575819</v>
+        <v>0.8196206064194981</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0764647003230509</v>
+        <v>0.2263453491351684</v>
       </c>
       <c r="H9" t="n">
-        <v>1.126660433777963</v>
+        <v>2.34408928391362</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2734840285732416</v>
+        <v>0.3469025620684881</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2044175232313853</v>
+        <v>1.038034648160072</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2389507990836039</v>
+        <v>0.6924685151752501</v>
       </c>
       <c r="L9" t="n">
-        <v>1.077893376457925</v>
+        <v>0.7907859171148073</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2765225132300278</v>
+        <v>0.4757576579889896</v>
       </c>
       <c r="N9" t="n">
-        <v>1.007417181154612</v>
+        <v>1.021955810340545</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2882946490987447</v>
+        <v>0.4960116464437017</v>
       </c>
       <c r="P9" t="n">
-        <v>127.1418521566571</v>
+        <v>124.9713867050765</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.4932774736173</v>
+        <v>199.3228120220368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_16</t>
+          <t>model_4_6_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9885657713662046</v>
+        <v>0.9655385729848387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8315112887455105</v>
+        <v>0.6490918531702263</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9578906717904899</v>
+        <v>0.9009768202814996</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9759067756386867</v>
+        <v>0.7385031285963433</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9730908860209097</v>
+        <v>0.8155453237437438</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07646073952397187</v>
+        <v>0.2304437211306648</v>
       </c>
       <c r="H10" t="n">
-        <v>1.12668478797795</v>
+        <v>2.346524393634141</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2734488434421964</v>
+        <v>0.3590474739651392</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2044272944090706</v>
+        <v>1.05717921633357</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2389381152777384</v>
+        <v>0.7081133451493546</v>
       </c>
       <c r="L10" t="n">
-        <v>1.077776268317462</v>
+        <v>0.8016863562700952</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2765153513350965</v>
+        <v>0.4800455406840738</v>
       </c>
       <c r="N10" t="n">
-        <v>1.007416796951651</v>
+        <v>1.022353358063888</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2882871823071191</v>
+        <v>0.5004820731822565</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1419557574467</v>
+        <v>124.9354972126221</v>
       </c>
       <c r="Q10" t="n">
-        <v>201.4933810744069</v>
+        <v>199.2869225295824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_15</t>
+          <t>model_4_6_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9885664306774521</v>
+        <v>0.9649777301585762</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8315072157377854</v>
+        <v>0.6487431352530131</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9578966274932007</v>
+        <v>0.8980663326955931</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9759055614662819</v>
+        <v>0.7341805794587037</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9730924889176032</v>
+        <v>0.8118948053731994</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07645633070662348</v>
+        <v>0.2341940796923254</v>
       </c>
       <c r="H11" t="n">
-        <v>1.126712024199362</v>
+        <v>2.348856271952244</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2734101684006468</v>
+        <v>0.3696005911110166</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2044375964747431</v>
+        <v>1.074654412443427</v>
       </c>
       <c r="K11" t="n">
-        <v>0.238923882437695</v>
+        <v>0.7221275237397857</v>
       </c>
       <c r="L11" t="n">
-        <v>1.077646676309108</v>
+        <v>0.8117843904158115</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2765073791178519</v>
+        <v>0.4839360285123701</v>
       </c>
       <c r="N11" t="n">
-        <v>1.007416369290301</v>
+        <v>1.022717148005248</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2882788706960816</v>
+        <v>0.5045381871318234</v>
       </c>
       <c r="P11" t="n">
-        <v>127.1420710831547</v>
+        <v>124.9032102139847</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.493496400115</v>
+        <v>199.2546355309449</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_14</t>
+          <t>model_4_6_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9885671840842444</v>
+        <v>0.9644665831713828</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8315027268954858</v>
+        <v>0.6484124141152838</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9579034555882318</v>
+        <v>0.8955385524887549</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9759041652383177</v>
+        <v>0.7302445874855967</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9730943076574156</v>
+        <v>0.8086285862968043</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07645129267193496</v>
+        <v>0.2376121219493031</v>
       </c>
       <c r="H12" t="n">
-        <v>1.126742041108489</v>
+        <v>2.351067805723071</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2733658282325997</v>
+        <v>0.3787660521736123</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2044494432537726</v>
+        <v>1.090566835744283</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2389077330296075</v>
+        <v>0.7346663943345519</v>
       </c>
       <c r="L12" t="n">
-        <v>1.077503006127151</v>
+        <v>0.8211006800904082</v>
       </c>
       <c r="M12" t="n">
-        <v>0.276498268840756</v>
+        <v>0.487454738359679</v>
       </c>
       <c r="N12" t="n">
-        <v>1.007415880594004</v>
+        <v>1.023048702807752</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2882693725756288</v>
+        <v>0.5082066957420658</v>
       </c>
       <c r="P12" t="n">
-        <v>127.1422028760524</v>
+        <v>124.8742313489798</v>
       </c>
       <c r="Q12" t="n">
-        <v>201.4936281930127</v>
+        <v>199.22565666594</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_13</t>
+          <t>model_4_6_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9885679669759667</v>
+        <v>0.9640014595824697</v>
       </c>
       <c r="C13" t="n">
-        <v>0.831497713388943</v>
+        <v>0.6481010831221516</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9579108248430568</v>
+        <v>0.8933403614353368</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9759025284438934</v>
+        <v>0.7266647807720968</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9730962312545562</v>
+        <v>0.8057055261712636</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07644605747138224</v>
+        <v>0.2407224055300619</v>
       </c>
       <c r="H13" t="n">
-        <v>1.126775566449826</v>
+        <v>2.353149677507693</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2733179738902333</v>
+        <v>0.3867364581660902</v>
       </c>
       <c r="J13" t="n">
-        <v>0.204463331202129</v>
+        <v>1.105039273734417</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2388906525461811</v>
+        <v>0.7458878928922454</v>
       </c>
       <c r="L13" t="n">
-        <v>1.07734571581525</v>
+        <v>0.8296465160048859</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2764888017106339</v>
+        <v>0.4906346966227133</v>
       </c>
       <c r="N13" t="n">
-        <v>1.007415372772346</v>
+        <v>1.023350404595155</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2882595024101778</v>
+        <v>0.5115220314117785</v>
       </c>
       <c r="P13" t="n">
-        <v>127.1423398359291</v>
+        <v>124.8482217072951</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.4937651528894</v>
+        <v>199.1996470242553</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9885688921793883</v>
+        <v>0.9635793729785443</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8314920972315767</v>
+        <v>0.6478097509646177</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9579191908010636</v>
+        <v>0.8914272383858652</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9759008643325314</v>
+        <v>0.7234160840246582</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9730985020798737</v>
+        <v>0.8030914701094974</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07643987063184253</v>
+        <v>0.243544900594041</v>
       </c>
       <c r="H14" t="n">
-        <v>1.126813121719994</v>
+        <v>2.355097816986584</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2732636471736003</v>
+        <v>0.3936732380215741</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2044774509304896</v>
+        <v>1.118173100778417</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2388704888677373</v>
+        <v>0.755923138513959</v>
       </c>
       <c r="L14" t="n">
-        <v>1.077166958825825</v>
+        <v>0.8374701887758801</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2764776132561957</v>
+        <v>0.4935026854983071</v>
       </c>
       <c r="N14" t="n">
-        <v>1.007414772640397</v>
+        <v>1.023624190500404</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2882478376400709</v>
+        <v>0.5145121165113619</v>
       </c>
       <c r="P14" t="n">
-        <v>127.1425017040518</v>
+        <v>124.8249079135367</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.4939270210121</v>
+        <v>199.176333230497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_11</t>
+          <t>model_4_6_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9885698539656214</v>
+        <v>0.9631966738655031</v>
       </c>
       <c r="C15" t="n">
-        <v>0.831485879340327</v>
+        <v>0.6475385697576419</v>
       </c>
       <c r="D15" t="n">
-        <v>0.957928233968338</v>
+        <v>0.8897590429792854</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9758989043141424</v>
+        <v>0.7204698476559896</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9731008697710917</v>
+        <v>0.8007523237277993</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07643343916287285</v>
+        <v>0.2461040113251154</v>
       </c>
       <c r="H15" t="n">
-        <v>1.126854700787411</v>
+        <v>2.356911206966306</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2732049228068769</v>
+        <v>0.3997219364022505</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2044940813843575</v>
+        <v>1.130084141391039</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2388494650734341</v>
+        <v>0.7649030180310127</v>
       </c>
       <c r="L15" t="n">
-        <v>1.076970794265533</v>
+        <v>0.8446065836470408</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2764659819270227</v>
+        <v>0.4960887131603736</v>
       </c>
       <c r="N15" t="n">
-        <v>1.007414148779056</v>
+        <v>1.023872427762917</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2882357111411348</v>
+        <v>0.5172082367248176</v>
       </c>
       <c r="P15" t="n">
-        <v>127.1426699863761</v>
+        <v>124.8040020442883</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.4940953033363</v>
+        <v>199.1554273612485</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_10</t>
+          <t>model_4_6_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9885709686853718</v>
+        <v>0.9628502975280144</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8314789517510363</v>
+        <v>0.6472871162528551</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9579385121009805</v>
+        <v>0.8883023054438367</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9758968061384375</v>
+        <v>0.7178024012796406</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9731036324144569</v>
+        <v>0.7986598662710005</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07642598502676898</v>
+        <v>0.2484202314888185</v>
       </c>
       <c r="H16" t="n">
-        <v>1.126901025608897</v>
+        <v>2.358592677710652</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2731381788429306</v>
+        <v>0.4050039111259458</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2045118840817508</v>
+        <v>1.140868090180267</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2388249343215335</v>
+        <v>0.7729358696745132</v>
       </c>
       <c r="L16" t="n">
-        <v>1.076750852115103</v>
+        <v>0.8511014247553109</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2764525004892684</v>
+        <v>0.4984177279038322</v>
       </c>
       <c r="N16" t="n">
-        <v>1.007413425717597</v>
+        <v>1.024097104306153</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2882216557706649</v>
+        <v>0.5196364024476305</v>
       </c>
       <c r="P16" t="n">
-        <v>127.1428650449706</v>
+        <v>124.785266970044</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.4942903619308</v>
+        <v>199.1366922870042</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_9</t>
+          <t>model_4_6_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9885734663899637</v>
+        <v>0.9625367772939003</v>
       </c>
       <c r="C17" t="n">
-        <v>0.831462715211116</v>
+        <v>0.6470548338225616</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9579624455841913</v>
+        <v>0.8870270822219293</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9758915547197228</v>
+        <v>0.7153866783953579</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9731098640558604</v>
+        <v>0.7967855918828851</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07640928286466198</v>
+        <v>0.2505167427379678</v>
       </c>
       <c r="H17" t="n">
-        <v>1.127009599426107</v>
+        <v>2.360145951391587</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2729827599943804</v>
+        <v>0.4096277343345033</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2045564415599681</v>
+        <v>1.150634371558612</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2387696007771742</v>
+        <v>0.780131126165882</v>
       </c>
       <c r="L17" t="n">
-        <v>1.076243145368996</v>
+        <v>0.8570083400175633</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2764222908244955</v>
+        <v>0.500516475990519</v>
       </c>
       <c r="N17" t="n">
-        <v>1.007411805584888</v>
+        <v>1.024300468782335</v>
       </c>
       <c r="O17" t="n">
-        <v>0.28819016001792</v>
+        <v>0.5218244985853749</v>
       </c>
       <c r="P17" t="n">
-        <v>127.1433021734529</v>
+        <v>124.7684590468268</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.4947274904131</v>
+        <v>199.1198843637871</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_8</t>
+          <t>model_4_6_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9885749103692324</v>
+        <v>0.9622534268793979</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8314532059078045</v>
+        <v>0.6468409916694662</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9579763771373448</v>
+        <v>0.8859095550910031</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9758885238950941</v>
+        <v>0.7132019606464954</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9731135170120643</v>
+        <v>0.795107505688417</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07639962696864344</v>
+        <v>0.2524115082644541</v>
       </c>
       <c r="H18" t="n">
-        <v>1.127073188181137</v>
+        <v>2.361575914853988</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2728922915101</v>
+        <v>0.4136797683591343</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2045821576396998</v>
+        <v>1.159466745671751</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2387371645374961</v>
+        <v>0.7865732248577195</v>
       </c>
       <c r="L18" t="n">
-        <v>1.075944629415775</v>
+        <v>0.8623663225553913</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2764048244308399</v>
+        <v>0.5024057207720212</v>
       </c>
       <c r="N18" t="n">
-        <v>1.007410868949687</v>
+        <v>1.024484263645796</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2881719500437261</v>
+        <v>0.5237941724285015</v>
       </c>
       <c r="P18" t="n">
-        <v>127.1435549308619</v>
+        <v>124.753389108024</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.4949802478222</v>
+        <v>199.1048144249842</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_7</t>
+          <t>model_4_6_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9885765139442357</v>
+        <v>0.961997426172517</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8314426272997457</v>
+        <v>0.6466445836192212</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9579918186273944</v>
+        <v>0.8849276606786656</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9758852455471814</v>
+        <v>0.7112275122407794</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9731175903128102</v>
+        <v>0.7936041393320887</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0763889038552122</v>
+        <v>0.2541233861701409</v>
       </c>
       <c r="H19" t="n">
-        <v>1.127143927381936</v>
+        <v>2.362889296390353</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2727920178231379</v>
+        <v>0.4172400126317634</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2046099739163377</v>
+        <v>1.167449043154094</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2387009958697378</v>
+        <v>0.7923445818174404</v>
       </c>
       <c r="L19" t="n">
-        <v>1.075610965907908</v>
+        <v>0.8672182015898074</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2763854262713796</v>
+        <v>0.5041065226419321</v>
       </c>
       <c r="N19" t="n">
-        <v>1.007409828792928</v>
+        <v>1.024650318158367</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2881517260644578</v>
+        <v>0.5255673809551599</v>
       </c>
       <c r="P19" t="n">
-        <v>127.1438356617097</v>
+        <v>124.7398707151788</v>
       </c>
       <c r="Q19" t="n">
-        <v>201.49526097867</v>
+        <v>199.091296032139</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_6</t>
+          <t>model_4_6_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9885782691947035</v>
+        <v>0.9617662125520501</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8314308415412677</v>
+        <v>0.6464645806489639</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9580090382084696</v>
+        <v>0.8840633752083302</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9758815054273943</v>
+        <v>0.7094439043869742</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9731221051265792</v>
+        <v>0.7922568287425309</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07637716648725217</v>
+        <v>0.2556695127148442</v>
       </c>
       <c r="H20" t="n">
-        <v>1.127222738803147</v>
+        <v>2.3640929770813</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2726801975987412</v>
+        <v>0.4203738194413489</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2046417082561412</v>
+        <v>1.17465981069793</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2386609068094424</v>
+        <v>0.7975168475896648</v>
       </c>
       <c r="L20" t="n">
-        <v>1.075243098804768</v>
+        <v>0.8716110184787101</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2763641917601703</v>
+        <v>0.5056377287296155</v>
       </c>
       <c r="N20" t="n">
-        <v>1.007408690252084</v>
+        <v>1.024800294560832</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2881295875561448</v>
+        <v>0.5271637736560295</v>
       </c>
       <c r="P20" t="n">
-        <v>127.144142990895</v>
+        <v>124.7277392689493</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.4955683078553</v>
+        <v>199.0791645859095</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_5</t>
+          <t>model_4_6_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.988580179893688</v>
+        <v>0.9615575277629479</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8314177456485693</v>
+        <v>0.6462999486628567</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9580281227234468</v>
+        <v>0.8833016215923589</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9758772903042886</v>
+        <v>0.7078330200726379</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9731270645441732</v>
+        <v>0.791048903341966</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07636438963434536</v>
+        <v>0.2570649888604762</v>
       </c>
       <c r="H21" t="n">
-        <v>1.127310311097922</v>
+        <v>2.36519387193046</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2725562668981082</v>
+        <v>0.4231358566974323</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2046774729258747</v>
+        <v>1.181172291737924</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2386168699119914</v>
+        <v>0.8021540197852703</v>
       </c>
       <c r="L21" t="n">
-        <v>1.074832515300712</v>
+        <v>0.875583555891017</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2763410748230262</v>
+        <v>0.5070157678617858</v>
       </c>
       <c r="N21" t="n">
-        <v>1.00740745087977</v>
+        <v>1.024935657667277</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2881054864831278</v>
+        <v>0.5286004787669905</v>
       </c>
       <c r="P21" t="n">
-        <v>127.144477591465</v>
+        <v>124.7168527022218</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.4959029084253</v>
+        <v>199.0682780191821</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_4</t>
+          <t>model_4_6_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9885822846588898</v>
+        <v>0.9613691920268213</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8314031460911243</v>
+        <v>0.6461497483074041</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9580493467114111</v>
+        <v>0.8826287372942485</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9758726220387591</v>
+        <v>0.7063792363125472</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9731325918697412</v>
+        <v>0.7899656365156328</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07635031505974926</v>
+        <v>0.2583243907951607</v>
       </c>
       <c r="H22" t="n">
-        <v>1.127407938405781</v>
+        <v>2.366198262398981</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2724184429239717</v>
+        <v>0.4255756632982116</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2047170824392155</v>
+        <v>1.1870496468587</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2385677903044366</v>
+        <v>0.8063126332270811</v>
       </c>
       <c r="L22" t="n">
-        <v>1.074379225751381</v>
+        <v>0.8791783153190028</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2763156077020429</v>
+        <v>0.5082562255350747</v>
       </c>
       <c r="N22" t="n">
-        <v>1.007406085626666</v>
+        <v>1.025057821388008</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2880789351740801</v>
+        <v>0.5298937452915327</v>
       </c>
       <c r="P22" t="n">
-        <v>127.1448462416134</v>
+        <v>124.7070783103457</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.4962715585737</v>
+        <v>199.058503627306</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_3</t>
+          <t>model_4_6_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9885845636680454</v>
+        <v>0.9611993530047205</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8313868864240238</v>
+        <v>0.6460127722384505</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9580728349333314</v>
+        <v>0.8820337675427671</v>
       </c>
       <c r="E23" t="n">
-        <v>0.97586736205236</v>
+        <v>0.7050675378470561</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9731386815296863</v>
+        <v>0.7889939524687773</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07633507531503179</v>
+        <v>0.2594601051179861</v>
       </c>
       <c r="H23" t="n">
-        <v>1.127516666874552</v>
+        <v>2.367114222002789</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2722659155056606</v>
+        <v>0.427732960074202</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2047617126129138</v>
+        <v>1.192352579732697</v>
       </c>
       <c r="K23" t="n">
-        <v>0.238513717477249</v>
+        <v>0.8100428853129169</v>
       </c>
       <c r="L23" t="n">
-        <v>1.073873051435387</v>
+        <v>0.8824242386310232</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2762880296267498</v>
+        <v>0.5093722657526478</v>
       </c>
       <c r="N23" t="n">
-        <v>1.007404607350457</v>
+        <v>1.025167987240181</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2880501830430273</v>
+        <v>0.5310572976516896</v>
       </c>
       <c r="P23" t="n">
-        <v>127.1452454872709</v>
+        <v>124.6983046513959</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.4966708042311</v>
+        <v>199.0497299683562</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_2</t>
+          <t>model_4_6_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9885870521396231</v>
+        <v>0.9610461275850191</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8313687874732989</v>
+        <v>0.6458880557111875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9580989300698523</v>
+        <v>0.8815066840527926</v>
       </c>
       <c r="E24" t="n">
-        <v>0.97586148736066</v>
+        <v>0.7038835540192377</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9731454151972986</v>
+        <v>0.7881216129500691</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0763184348941336</v>
+        <v>0.260484724205067</v>
       </c>
       <c r="H24" t="n">
-        <v>1.127637694641387</v>
+        <v>2.367948201994865</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2720964593494002</v>
+        <v>0.429644108516234</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2048115584663256</v>
+        <v>1.197139188033308</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2384539262165842</v>
+        <v>0.8133917581484327</v>
       </c>
       <c r="L24" t="n">
-        <v>1.073313104144479</v>
+        <v>0.8853521196699183</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2762579137221839</v>
+        <v>0.5103770412205735</v>
       </c>
       <c r="N24" t="n">
-        <v>1.007402993206731</v>
+        <v>1.025267376701609</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2880187850420555</v>
+        <v>0.5321048484914569</v>
       </c>
       <c r="P24" t="n">
-        <v>127.1456815184094</v>
+        <v>124.6904221195915</v>
       </c>
       <c r="Q24" t="n">
-        <v>201.4971068353697</v>
+        <v>199.0418474365518</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_1</t>
+          <t>model_4_6_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9885897779308391</v>
+        <v>0.9609078899010274</v>
       </c>
       <c r="C25" t="n">
-        <v>0.831348583308674</v>
+        <v>0.6457747542603416</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9581279869207138</v>
+        <v>0.8810388444816792</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9758549463578231</v>
+        <v>0.7028156221824041</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9731529047242413</v>
+        <v>0.7873383639791037</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0763002075157206</v>
+        <v>0.2614091202344457</v>
       </c>
       <c r="H25" t="n">
-        <v>1.127772799983265</v>
+        <v>2.368705849318376</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2719077704626382</v>
+        <v>0.4313404448357374</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2048670578670121</v>
+        <v>1.201456621493607</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2383874233412609</v>
+        <v>0.8163986163109471</v>
       </c>
       <c r="L25" t="n">
-        <v>1.07269154722324</v>
+        <v>0.8879971593858318</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2762249219670821</v>
+        <v>0.5112818403135845</v>
       </c>
       <c r="N25" t="n">
-        <v>1.007401225125942</v>
+        <v>1.025357044388523</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2879843887596366</v>
+        <v>0.5330481667550496</v>
       </c>
       <c r="P25" t="n">
-        <v>127.1461592419224</v>
+        <v>124.6833371768897</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.4975845588827</v>
+        <v>199.03476249385</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_0</t>
+          <t>model_4_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9885927298217838</v>
+        <v>0.9607833924115972</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8313260952326752</v>
+        <v>0.6456719497608044</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9581602334106687</v>
+        <v>0.880623085955923</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9758476122044419</v>
+        <v>0.7018538547228257</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9731611878542058</v>
+        <v>0.7866356183950459</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07628046820738082</v>
+        <v>0.2622416355195241</v>
       </c>
       <c r="H26" t="n">
-        <v>1.127923177851017</v>
+        <v>2.369393303480153</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2716983687514689</v>
+        <v>0.4328479408470409</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2049292870277927</v>
+        <v>1.205344853745697</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2383138737080826</v>
+        <v>0.8190964255311634</v>
       </c>
       <c r="L26" t="n">
-        <v>1.072000653316234</v>
+        <v>0.8903840575320331</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2761891891573253</v>
+        <v>0.5120953383106744</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00739931038587</v>
+        <v>1.025437799516802</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2879471347301914</v>
+        <v>0.5338962970460488</v>
       </c>
       <c r="P26" t="n">
-        <v>127.1466767205181</v>
+        <v>124.6769778545563</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.4981020374783</v>
+        <v>199.0284031715166</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_6.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_0</t>
+          <t>model_4_6_20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9715987684266447</v>
+        <v>0.9827190427371647</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6516987158928997</v>
+        <v>0.8113606415992053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9442250654350188</v>
+        <v>0.9051365279258354</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7888514218833345</v>
+        <v>0.9876316082246229</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8624801632190979</v>
+        <v>0.9730187839182363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1899191663066731</v>
+        <v>0.1155578407880713</v>
       </c>
       <c r="H2" t="n">
-        <v>2.329092290604125</v>
+        <v>1.261432258230491</v>
       </c>
       <c r="I2" t="n">
-        <v>0.202233955959162</v>
+        <v>0.6019785214546056</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8536312008060317</v>
+        <v>0.1138054574307784</v>
       </c>
       <c r="K2" t="n">
-        <v>0.527932571967066</v>
+        <v>0.357891989442692</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6995726845667857</v>
+        <v>0.6004825725083588</v>
       </c>
       <c r="M2" t="n">
-        <v>0.435797161884601</v>
+        <v>0.3399379955051675</v>
       </c>
       <c r="N2" t="n">
-        <v>1.018422420480014</v>
+        <v>1.011209269575893</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4543499492905186</v>
+        <v>0.3544098597424825</v>
       </c>
       <c r="P2" t="n">
-        <v>125.3223134756767</v>
+        <v>126.3159681766557</v>
       </c>
       <c r="Q2" t="n">
-        <v>199.6737387926369</v>
+        <v>200.667393493616</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_1</t>
+          <t>model_4_6_21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9708053619749994</v>
+        <v>0.9825657524949168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6515431284929931</v>
+        <v>0.811360196760805</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9367449989299176</v>
+        <v>0.9039200632642033</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7811617557890729</v>
+        <v>0.987641149202132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8548987119574731</v>
+        <v>0.9727311074946087</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1952246789021259</v>
+        <v>0.116582893343819</v>
       </c>
       <c r="H3" t="n">
-        <v>2.330132704263715</v>
+        <v>1.261435232866922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2293558782341553</v>
+        <v>0.6096978846868371</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8847189730296982</v>
+        <v>0.1137176679000553</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5570374280917088</v>
+        <v>0.3617078696185831</v>
       </c>
       <c r="L3" t="n">
-        <v>0.712617821489073</v>
+        <v>0.6047909511192431</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4418423688399811</v>
+        <v>0.3414423719221429</v>
       </c>
       <c r="N3" t="n">
-        <v>1.018937062502703</v>
+        <v>1.011308701084378</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4606525132212928</v>
+        <v>0.3559782805780172</v>
       </c>
       <c r="P3" t="n">
-        <v>125.2672083683854</v>
+        <v>126.2983054562924</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.6186336853457</v>
+        <v>200.6497307732527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_2</t>
+          <t>model_4_6_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9699650639549127</v>
+        <v>0.9824236050657609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6512805255861904</v>
+        <v>0.811356147940778</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9297328763834094</v>
+        <v>0.9028171061124141</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7737498931376033</v>
+        <v>0.9876482716084293</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8476845334365721</v>
+        <v>0.9724697691600963</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2008437556316627</v>
+        <v>0.1175334338571137</v>
       </c>
       <c r="H4" t="n">
-        <v>2.33188873111068</v>
+        <v>1.261462307345086</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2547810856917923</v>
+        <v>0.6166969592615344</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9146836418511359</v>
+        <v>0.1136521324026845</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5847323404063354</v>
+        <v>0.3651743885543053</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7263045301786692</v>
+        <v>0.6086639159108118</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4481559501241311</v>
+        <v>0.3428314948442072</v>
       </c>
       <c r="N4" t="n">
-        <v>1.019482120677895</v>
+        <v>1.011400904822209</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4672348767316241</v>
+        <v>0.3574265413387546</v>
       </c>
       <c r="P4" t="n">
-        <v>125.2104560167411</v>
+        <v>126.2820648848159</v>
       </c>
       <c r="Q4" t="n">
-        <v>199.5618813337014</v>
+        <v>200.6334902017761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_3</t>
+          <t>model_4_6_19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9691239832090173</v>
+        <v>0.9828836213737807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6509537975238502</v>
+        <v>0.8113560484970876</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9233455456587722</v>
+        <v>0.9064769530437066</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7667274130315413</v>
+        <v>0.9876190127928232</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8409704290915135</v>
+        <v>0.9733350589664519</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2064680664522859</v>
+        <v>0.1144573026872052</v>
       </c>
       <c r="H5" t="n">
-        <v>2.334073563167993</v>
+        <v>1.261462972325501</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2779408647312091</v>
+        <v>0.5934725379297159</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9430741154173938</v>
+        <v>0.1139213519547822</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6105074900743015</v>
+        <v>0.3536967631832838</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7400880496358934</v>
+        <v>0.5956811064695239</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4543875729509841</v>
+        <v>0.3383153893738877</v>
       </c>
       <c r="N5" t="n">
-        <v>1.020027686567124</v>
+        <v>1.011102515865656</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4737317926434538</v>
+        <v>0.3527181759089364</v>
       </c>
       <c r="P5" t="n">
-        <v>125.1552190408338</v>
+        <v>126.3351068556567</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.506644357794</v>
+        <v>200.6865321726169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_4</t>
+          <t>model_4_6_23</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9683099663226648</v>
+        <v>0.982292287351338</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6505916428193458</v>
+        <v>0.8113495255141484</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9176362335528268</v>
+        <v>0.9018181124808961</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7601513198425953</v>
+        <v>0.9876533947756957</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8348115848642964</v>
+        <v>0.9722325867282005</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2119114011195286</v>
+        <v>0.1184115560181223</v>
       </c>
       <c r="H6" t="n">
-        <v>2.336495293344583</v>
+        <v>1.261506591542451</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2986422206717649</v>
+        <v>0.6230363088140541</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9696599365276393</v>
+        <v>0.1136049925315649</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6341510207047188</v>
+        <v>0.3683204918342627</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7536426957723235</v>
+        <v>0.6121481727475375</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4603383550384744</v>
+        <v>0.344109802269744</v>
       </c>
       <c r="N6" t="n">
-        <v>1.020555697520434</v>
+        <v>1.011486083880213</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4799359118442257</v>
+        <v>0.3587592689578576</v>
       </c>
       <c r="P6" t="n">
-        <v>125.1031740218204</v>
+        <v>126.2671779195811</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.4545993387807</v>
+        <v>200.6186032365413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_5</t>
+          <t>model_4_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9675387697466707</v>
+        <v>0.9830594606654794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6502133049089209</v>
+        <v>0.8113447934963163</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9125948502052232</v>
+        <v>0.9079529235650228</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7540465879256188</v>
+        <v>0.9876025244918751</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8292163277426103</v>
+        <v>0.9736823788925942</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2170683961742343</v>
+        <v>0.1132814645339504</v>
       </c>
       <c r="H7" t="n">
-        <v>2.33902524069368</v>
+        <v>1.261538234567484</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3169217382694891</v>
+        <v>0.5841064190990886</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9943401388921004</v>
+        <v>0.1140730659905052</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6556309653600847</v>
+        <v>0.3490897425447969</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7666946267729315</v>
+        <v>0.5903384112154574</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4659059949970963</v>
+        <v>0.3365731191493914</v>
       </c>
       <c r="N7" t="n">
-        <v>1.021055933137295</v>
+        <v>1.010988457946716</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4857405777624897</v>
+        <v>0.3509017336339868</v>
       </c>
       <c r="P7" t="n">
-        <v>125.055085570721</v>
+        <v>126.3557594413559</v>
       </c>
       <c r="Q7" t="n">
-        <v>199.4065108876813</v>
+        <v>200.7071847583161</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_6</t>
+          <t>model_4_6_24</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9668182414465374</v>
+        <v>0.9821713187704705</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6498317991416483</v>
+        <v>0.8113411280463115</v>
       </c>
       <c r="D8" t="n">
-        <v>0.908177880875822</v>
+        <v>0.9009135859200172</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7484131239716343</v>
+        <v>0.9876569346856541</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8241641027152671</v>
+        <v>0.9720174396082325</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2218865722349536</v>
+        <v>0.1192204734753924</v>
       </c>
       <c r="H8" t="n">
-        <v>2.341576371516104</v>
+        <v>1.261562745448544</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3329371973247466</v>
+        <v>0.6287761953038564</v>
       </c>
       <c r="J8" t="n">
-        <v>1.017115099740193</v>
+        <v>0.1135724207082111</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6750262338193629</v>
+        <v>0.3711743080060338</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7791078312370777</v>
+        <v>0.6152749095296669</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4710483756844445</v>
+        <v>0.3452831786742476</v>
       </c>
       <c r="N8" t="n">
-        <v>1.021523302845489</v>
+        <v>1.011564549986722</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4911018802418938</v>
+        <v>0.3599825984251249</v>
       </c>
       <c r="P8" t="n">
-        <v>125.0111779271213</v>
+        <v>126.2535615635112</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.3626032440816</v>
+        <v>200.6049868804714</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_7</t>
+          <t>model_4_6_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9661514590583268</v>
+        <v>0.9832460481270259</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6494560087024142</v>
+        <v>0.8113246388294305</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9043263154892676</v>
+        <v>0.9095757515949625</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7432386025863693</v>
+        <v>0.9875811511761255</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8196206064194981</v>
+        <v>0.9740631244687176</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2263453491351684</v>
+        <v>0.112033753319433</v>
       </c>
       <c r="H9" t="n">
-        <v>2.34408928391362</v>
+        <v>1.261673008917753</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3469025620684881</v>
+        <v>0.5738083813330406</v>
       </c>
       <c r="J9" t="n">
-        <v>1.038034648160072</v>
+        <v>0.1142697285817198</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6924685151752501</v>
+        <v>0.3440393478073113</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7907859171148073</v>
+        <v>0.5843897887950676</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4757576579889896</v>
+        <v>0.3347144354811024</v>
       </c>
       <c r="N9" t="n">
-        <v>1.021955810340545</v>
+        <v>1.010867428241929</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4960116464437017</v>
+        <v>0.3489639219539331</v>
       </c>
       <c r="P9" t="n">
-        <v>124.9713867050765</v>
+        <v>126.3779101683321</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.3228120220368</v>
+        <v>200.7293354852923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_8</t>
+          <t>model_4_6_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9655385729848387</v>
+        <v>0.9834426281631995</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6490918531702263</v>
+        <v>0.8112928345883434</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9009768202814996</v>
+        <v>0.9113578812402131</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7385031285963433</v>
+        <v>0.9875537931490633</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8155453237437438</v>
+        <v>0.9744799542554812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2304437211306648</v>
+        <v>0.1107192217123717</v>
       </c>
       <c r="H10" t="n">
-        <v>2.346524393634141</v>
+        <v>1.261885684024347</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3590474739651392</v>
+        <v>0.5624994576194988</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05717921633357</v>
+        <v>0.1145214583814186</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7081133451493546</v>
+        <v>0.3385103145275762</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8016863562700952</v>
+        <v>0.5777635098267058</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4800455406840738</v>
+        <v>0.3327449799957494</v>
       </c>
       <c r="N10" t="n">
-        <v>1.022353358063888</v>
+        <v>1.010739916867114</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5004820731822565</v>
+        <v>0.3469106226712338</v>
       </c>
       <c r="P10" t="n">
-        <v>124.9354972126221</v>
+        <v>126.4015156329388</v>
       </c>
       <c r="Q10" t="n">
-        <v>199.2869225295824</v>
+        <v>200.752940949899</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_9</t>
+          <t>model_4_6_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9649777301585762</v>
+        <v>0.9836477304610177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6487431352530131</v>
+        <v>0.8112458757135528</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8980663326955931</v>
+        <v>0.9133116895827472</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7341805794587037</v>
+        <v>0.9875190674600369</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8118948053731994</v>
+        <v>0.9749352505082578</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2341940796923254</v>
+        <v>0.109347701702452</v>
       </c>
       <c r="H11" t="n">
-        <v>2.348856271952244</v>
+        <v>1.262199698236298</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3696005911110166</v>
+        <v>0.5501011062675177</v>
       </c>
       <c r="J11" t="n">
-        <v>1.074654412443427</v>
+        <v>0.1148409803529108</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7221275237397857</v>
+        <v>0.3324710433102143</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8117843904158115</v>
+        <v>0.5703864869652483</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4839360285123701</v>
+        <v>0.3306776401610063</v>
       </c>
       <c r="N11" t="n">
-        <v>1.022717148005248</v>
+        <v>1.010606877538799</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5045381871318234</v>
+        <v>0.3447552718997423</v>
       </c>
       <c r="P11" t="n">
-        <v>124.9032102139847</v>
+        <v>126.4264450997809</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.2546355309449</v>
+        <v>200.7778704167412</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_10</t>
+          <t>model_4_6_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9644665831713828</v>
+        <v>0.9838591940335013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6484124141152838</v>
+        <v>0.8111793894349884</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8955385524887549</v>
+        <v>0.9154500765796934</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7302445874855967</v>
+        <v>0.9874751252752574</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8086285862968043</v>
+        <v>0.9754315224696728</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2376121219493031</v>
+        <v>0.1079336438195544</v>
       </c>
       <c r="H12" t="n">
-        <v>2.351067805723071</v>
+        <v>1.262644292287199</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3787660521736123</v>
+        <v>0.5365314675586057</v>
       </c>
       <c r="J12" t="n">
-        <v>1.090566835744283</v>
+        <v>0.1152453061965742</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7346663943345519</v>
+        <v>0.3258882503390894</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8211006800904082</v>
+        <v>0.562159298044722</v>
       </c>
       <c r="M12" t="n">
-        <v>0.487454738359679</v>
+        <v>0.3285325612775002</v>
       </c>
       <c r="N12" t="n">
-        <v>1.023048702807752</v>
+        <v>1.01046971197827</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5082066957420658</v>
+        <v>0.3425188725672398</v>
       </c>
       <c r="P12" t="n">
-        <v>124.8742313489798</v>
+        <v>126.4524772995254</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.22565666594</v>
+        <v>200.8039026164857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_11</t>
+          <t>model_4_6_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9640014595824697</v>
+        <v>0.9840739894352323</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6481010831221516</v>
+        <v>0.8110878961240515</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8933403614353368</v>
+        <v>0.9177857118881767</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7266647807720968</v>
+        <v>0.9874200584644612</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8057055261712636</v>
+        <v>0.9759711071983738</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2407224055300619</v>
+        <v>0.1064973059791377</v>
       </c>
       <c r="H13" t="n">
-        <v>2.353149677507693</v>
+        <v>1.263256108478722</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3867364581660902</v>
+        <v>0.5217101431972249</v>
       </c>
       <c r="J13" t="n">
-        <v>1.105039273734417</v>
+        <v>0.115751993218276</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7458878928922454</v>
+        <v>0.318730935730197</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8296465160048859</v>
+        <v>0.5529954797780299</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4906346966227133</v>
+        <v>0.3263392498292808</v>
       </c>
       <c r="N13" t="n">
-        <v>1.023350404595155</v>
+        <v>1.010330385231201</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5115220314117785</v>
+        <v>0.3402321873098891</v>
       </c>
       <c r="P13" t="n">
-        <v>124.8482217072951</v>
+        <v>126.4792711802463</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.1996470242553</v>
+        <v>200.8306964972065</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9635793729785443</v>
+        <v>0.9842876599195429</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6478097509646177</v>
+        <v>0.8109645604436815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8914272383858652</v>
+        <v>0.9203305079332323</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7234160840246582</v>
+        <v>0.9873513907179929</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8030914701094974</v>
+        <v>0.9765559961835031</v>
       </c>
       <c r="G14" t="n">
-        <v>0.243544900594041</v>
+        <v>0.1050684904666898</v>
       </c>
       <c r="H14" t="n">
-        <v>2.355097816986584</v>
+        <v>1.264080854741265</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3936732380215741</v>
+        <v>0.5055615400825459</v>
       </c>
       <c r="J14" t="n">
-        <v>1.118173100778417</v>
+        <v>0.1163838267209246</v>
       </c>
       <c r="K14" t="n">
-        <v>0.755923138513959</v>
+        <v>0.3109726834017353</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8374701887758801</v>
+        <v>0.542780067420679</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4935026854983071</v>
+        <v>0.3241427007765096</v>
       </c>
       <c r="N14" t="n">
-        <v>1.023624190500404</v>
+        <v>1.010191788160296</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5145121165113619</v>
+        <v>0.337942126616458</v>
       </c>
       <c r="P14" t="n">
-        <v>124.8249079135367</v>
+        <v>126.5062857026288</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.176333230497</v>
+        <v>200.8577110195891</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_13</t>
+          <t>model_4_6_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9631966738655031</v>
+        <v>0.9844943277000502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6475385697576419</v>
+        <v>0.8108007599509348</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8897590429792854</v>
+        <v>0.9230953416973462</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7204698476559896</v>
+        <v>0.9872662411152223</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8007523237277993</v>
+        <v>0.9771878172119876</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2461040113251154</v>
+        <v>0.1036865020668206</v>
       </c>
       <c r="H15" t="n">
-        <v>2.356911206966306</v>
+        <v>1.265176189390494</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3997219364022505</v>
+        <v>0.4880166357584895</v>
       </c>
       <c r="J15" t="n">
-        <v>1.130084141391039</v>
+        <v>0.1171673149600872</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7649030180310127</v>
+        <v>0.3025919015952082</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8446065836470408</v>
+        <v>0.5313828662751213</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4960887131603736</v>
+        <v>0.3220038851734877</v>
       </c>
       <c r="N15" t="n">
-        <v>1.023872427762917</v>
+        <v>1.010057733383751</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5172082367248176</v>
+        <v>0.3357122572052568</v>
       </c>
       <c r="P15" t="n">
-        <v>124.8040020442883</v>
+        <v>126.5327666710174</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.1554273612485</v>
+        <v>200.8841919879776</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_14</t>
+          <t>model_4_6_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9628502975280144</v>
+        <v>0.9846859149622764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6472871162528551</v>
+        <v>0.810585891845421</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8883023054438367</v>
+        <v>0.9260891304228754</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7178024012796406</v>
+        <v>0.9871610682464381</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7986598662710005</v>
+        <v>0.9778674438925323</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2484202314888185</v>
+        <v>0.1024053571621353</v>
       </c>
       <c r="H16" t="n">
-        <v>2.358592677710652</v>
+        <v>1.266613013401442</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4050039111259458</v>
+        <v>0.4690188437618756</v>
       </c>
       <c r="J16" t="n">
-        <v>1.140868090180267</v>
+        <v>0.1181350435588145</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7729358696745132</v>
+        <v>0.2935770023393179</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8511014247553109</v>
+        <v>0.5186735563541519</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4984177279038322</v>
+        <v>0.3200083704563606</v>
       </c>
       <c r="N16" t="n">
-        <v>1.024097104306153</v>
+        <v>1.00993346056501</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5196364024476305</v>
+        <v>0.3336317892953367</v>
       </c>
       <c r="P16" t="n">
-        <v>124.785266970044</v>
+        <v>126.5576325034174</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.1366922870042</v>
+        <v>200.9090578203776</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_15</t>
+          <t>model_4_6_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9625367772939003</v>
+        <v>0.9848519991785323</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6470548338225616</v>
+        <v>0.8103065999362816</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8870270822219293</v>
+        <v>0.9293179269853047</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7153866783953579</v>
+        <v>0.9870321065433341</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7967855918828851</v>
+        <v>0.978595047978093</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2505167427379678</v>
+        <v>0.1012947512432847</v>
       </c>
       <c r="H17" t="n">
-        <v>2.360145951391587</v>
+        <v>1.268480639683877</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4096277343345033</v>
+        <v>0.4485297541446487</v>
       </c>
       <c r="J17" t="n">
-        <v>1.150634371558612</v>
+        <v>0.1193216606937946</v>
       </c>
       <c r="K17" t="n">
-        <v>0.780131126165882</v>
+        <v>0.2839257074192216</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8570083400175633</v>
+        <v>0.5044880377103533</v>
       </c>
       <c r="M17" t="n">
-        <v>0.500516475990519</v>
+        <v>0.3182683635601954</v>
       </c>
       <c r="N17" t="n">
-        <v>1.024300468782335</v>
+        <v>1.009825730262574</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5218244985853749</v>
+        <v>0.3318177067032909</v>
       </c>
       <c r="P17" t="n">
-        <v>124.7684590468268</v>
+        <v>126.5794413661105</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.1198843637871</v>
+        <v>200.9308666830707</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_16</t>
+          <t>model_4_6_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9622534268793979</v>
+        <v>0.9849787737166111</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6468409916694662</v>
+        <v>0.8099463967405414</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8859095550910031</v>
+        <v>0.9327829755114224</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7132019606464954</v>
+        <v>0.9868748457602384</v>
       </c>
       <c r="F18" t="n">
-        <v>0.795107505688417</v>
+        <v>0.9793693438973058</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2524115082644541</v>
+        <v>0.1004470093234087</v>
       </c>
       <c r="H18" t="n">
-        <v>2.361575914853988</v>
+        <v>1.270889320112375</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4136797683591343</v>
+        <v>0.4265414720070297</v>
       </c>
       <c r="J18" t="n">
-        <v>1.159466745671751</v>
+        <v>0.1207686665520454</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7865732248577195</v>
+        <v>0.2736550692795375</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8623663225553913</v>
+        <v>0.4886568061645522</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5024057207720212</v>
+        <v>0.316933761728549</v>
       </c>
       <c r="N18" t="n">
-        <v>1.024484263645796</v>
+        <v>1.009743498129766</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5237941724285015</v>
+        <v>0.3304262881086647</v>
       </c>
       <c r="P18" t="n">
-        <v>124.753389108024</v>
+        <v>126.5962499219056</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.1048144249842</v>
+        <v>200.9476752388658</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_17</t>
+          <t>model_4_6_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.961997426172517</v>
+        <v>0.9850482375364932</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6466445836192212</v>
+        <v>0.8094846365916064</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8849276606786656</v>
+        <v>0.9364786486656926</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7112275122407794</v>
+        <v>0.9866842292724025</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7936041393320887</v>
+        <v>0.9801872281615566</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2541233861701409</v>
+        <v>0.09998250444000605</v>
       </c>
       <c r="H19" t="n">
-        <v>2.362889296390353</v>
+        <v>1.273977112354514</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4172400126317634</v>
+        <v>0.4030897069330323</v>
       </c>
       <c r="J19" t="n">
-        <v>1.167449043154094</v>
+        <v>0.122522588726083</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7923445818174404</v>
+        <v>0.2628062541045829</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8672182015898074</v>
+        <v>0.4709873118577383</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5041065226419321</v>
+        <v>0.3162001018975263</v>
       </c>
       <c r="N19" t="n">
-        <v>1.024650318158367</v>
+        <v>1.009698440516869</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5255673809551599</v>
+        <v>0.3296613948597502</v>
       </c>
       <c r="P19" t="n">
-        <v>124.7398707151788</v>
+        <v>126.605520127801</v>
       </c>
       <c r="Q19" t="n">
-        <v>199.091296032139</v>
+        <v>200.9569454447613</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_18</t>
+          <t>model_4_6_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9617662125520501</v>
+        <v>0.9850373543679638</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6464645806489639</v>
+        <v>0.8088957636555365</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8840633752083302</v>
+        <v>0.9403909624979735</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7094439043869742</v>
+        <v>0.9864549489495658</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7922568287425309</v>
+        <v>0.9810435527231026</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2556695127148442</v>
+        <v>0.1000552802380739</v>
       </c>
       <c r="H20" t="n">
-        <v>2.3640929770813</v>
+        <v>1.277914908389524</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4203738194413489</v>
+        <v>0.3782631973743096</v>
       </c>
       <c r="J20" t="n">
-        <v>1.17465981069793</v>
+        <v>0.1246322689896286</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7975168475896648</v>
+        <v>0.2514475481066166</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8716110184787101</v>
+        <v>0.4512527191788557</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5056377287296155</v>
+        <v>0.3163151596716064</v>
       </c>
       <c r="N20" t="n">
-        <v>1.024800294560832</v>
+        <v>1.009705499869429</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5271637736560295</v>
+        <v>0.3297813508814753</v>
       </c>
       <c r="P20" t="n">
-        <v>124.7277392689493</v>
+        <v>126.6040648867045</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.0791645859095</v>
+        <v>200.9554902036648</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_19</t>
+          <t>model_4_6_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9615575277629479</v>
+        <v>0.9849164771771808</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6462999486628567</v>
+        <v>0.8081479387306957</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8833016215923589</v>
+        <v>0.9444912238475097</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7078330200726379</v>
+        <v>0.9861816178619868</v>
       </c>
       <c r="F21" t="n">
-        <v>0.791048903341966</v>
+        <v>0.981929519874589</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2570649888604762</v>
+        <v>0.1008635865694286</v>
       </c>
       <c r="H21" t="n">
-        <v>2.36519387193046</v>
+        <v>1.282915617105351</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4231358566974323</v>
+        <v>0.3522440225454401</v>
       </c>
       <c r="J21" t="n">
-        <v>1.181172291737924</v>
+        <v>0.1271472741751781</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8021540197852703</v>
+        <v>0.2396956483603091</v>
       </c>
       <c r="L21" t="n">
-        <v>0.875583555891017</v>
+        <v>0.429219961912937</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5070157678617858</v>
+        <v>0.3175902809744476</v>
       </c>
       <c r="N21" t="n">
-        <v>1.024935657667277</v>
+        <v>1.009783906695883</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5286004787669905</v>
+        <v>0.3311107567380434</v>
       </c>
       <c r="P21" t="n">
-        <v>124.7168527022218</v>
+        <v>126.5879726061729</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.0682780191821</v>
+        <v>200.9393979231332</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_20</t>
+          <t>model_4_6_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9613691920268213</v>
+        <v>0.9846473963041739</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6461497483074041</v>
+        <v>0.8072012874192432</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8826287372942485</v>
+        <v>0.9487318131344997</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7063792363125472</v>
+        <v>0.9858591621086684</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7899656365156328</v>
+        <v>0.9828320341943526</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2583243907951607</v>
+        <v>0.1026629316062293</v>
       </c>
       <c r="H22" t="n">
-        <v>2.366198262398981</v>
+        <v>1.289245878783962</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4255756632982116</v>
+        <v>0.3253343637140332</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1870496468587</v>
+        <v>0.1301142908394332</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8063126332270811</v>
+        <v>0.2277242589158207</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8791783153190028</v>
+        <v>0.4046168292719466</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5082562255350747</v>
+        <v>0.32041056725119</v>
       </c>
       <c r="N22" t="n">
-        <v>1.025057821388008</v>
+        <v>1.009958445640536</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5298937452915327</v>
+        <v>0.3340511084403842</v>
       </c>
       <c r="P22" t="n">
-        <v>124.7070783103457</v>
+        <v>126.5526083315945</v>
       </c>
       <c r="Q22" t="n">
-        <v>199.058503627306</v>
+        <v>200.9040336485548</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_21</t>
+          <t>model_4_6_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9611993530047205</v>
+        <v>0.9841813371934824</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6460127722384505</v>
+        <v>0.8060056857003427</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8820337675427671</v>
+        <v>0.9530361725560759</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7050675378470561</v>
+        <v>0.9854842652959273</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7889939524687773</v>
+        <v>0.9837316055147107</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2594601051179861</v>
+        <v>0.105779471025428</v>
       </c>
       <c r="H23" t="n">
-        <v>2.367114222002789</v>
+        <v>1.29724087298349</v>
       </c>
       <c r="I23" t="n">
-        <v>0.427732960074202</v>
+        <v>0.2980200364629303</v>
       </c>
       <c r="J23" t="n">
-        <v>1.192352579732697</v>
+        <v>0.1335638341623001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8100428853129169</v>
+        <v>0.2157919068486284</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8824242386310232</v>
+        <v>0.3772218988578075</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5093722657526478</v>
+        <v>0.325237560908066</v>
       </c>
       <c r="N23" t="n">
-        <v>1.025167987240181</v>
+        <v>1.010260754252876</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5310572976516896</v>
+        <v>0.3390835972104878</v>
       </c>
       <c r="P23" t="n">
-        <v>124.6983046513959</v>
+        <v>126.4927976281236</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.0497299683562</v>
+        <v>200.8442229450838</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_22</t>
+          <t>model_4_6_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9610461275850191</v>
+        <v>0.9834551544510308</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6458880557111875</v>
+        <v>0.8044976463993723</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8815066840527926</v>
+        <v>0.9572840697214621</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7038835540192377</v>
+        <v>0.9850567741733499</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7881216129500691</v>
+        <v>0.984599436954754</v>
       </c>
       <c r="G24" t="n">
-        <v>0.260484724205067</v>
+        <v>0.1106354583679657</v>
       </c>
       <c r="H24" t="n">
-        <v>2.367948201994865</v>
+        <v>1.307325138732962</v>
       </c>
       <c r="I24" t="n">
-        <v>0.429644108516234</v>
+        <v>0.2710640037666859</v>
       </c>
       <c r="J24" t="n">
-        <v>1.197139188033308</v>
+        <v>0.1374973142489646</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8133917581484327</v>
+        <v>0.2042805680106454</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8853521196699183</v>
+        <v>0.3472011332613471</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5103770412205735</v>
+        <v>0.3326190890011662</v>
       </c>
       <c r="N24" t="n">
-        <v>1.025267376701609</v>
+        <v>1.010731791707439</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5321048484914569</v>
+        <v>0.3467793722363809</v>
       </c>
       <c r="P24" t="n">
-        <v>124.6904221195915</v>
+        <v>126.4030292824062</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.0418474365518</v>
+        <v>200.7544545993665</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_23</t>
+          <t>model_4_6_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9609078899010274</v>
+        <v>0.9823871673576945</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6457747542603416</v>
+        <v>0.8025954953605642</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8810388444816792</v>
+        <v>0.9612878493517094</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7028156221824041</v>
+        <v>0.9845831114212178</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7873383639791037</v>
+        <v>0.9853928521145445</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2614091202344457</v>
+        <v>0.1177770929787341</v>
       </c>
       <c r="H25" t="n">
-        <v>2.368705849318376</v>
+        <v>1.320044831488072</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4313404448357374</v>
+        <v>0.2456570764283948</v>
       </c>
       <c r="J25" t="n">
-        <v>1.201456621493607</v>
+        <v>0.1418556340009005</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8163986163109471</v>
+        <v>0.1937563229532364</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8879971593858318</v>
+        <v>0.3138648762726069</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5112818403135845</v>
+        <v>0.3431866736613386</v>
       </c>
       <c r="N25" t="n">
-        <v>1.025357044388523</v>
+        <v>1.011424540092306</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5330481667550496</v>
+        <v>0.3577968408534528</v>
       </c>
       <c r="P25" t="n">
-        <v>124.6833371768897</v>
+        <v>126.2779229671213</v>
       </c>
       <c r="Q25" t="n">
-        <v>199.03476249385</v>
+        <v>200.6293482840815</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_24</t>
+          <t>model_4_6_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9607833924115972</v>
+        <v>0.9808694403269561</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6456719497608044</v>
+        <v>0.8001915709601244</v>
       </c>
       <c r="D26" t="n">
-        <v>0.880623085955923</v>
+        <v>0.9647508384134577</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7018538547228257</v>
+        <v>0.9840812277533955</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7866356183950459</v>
+        <v>0.9860471251791102</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2622416355195241</v>
+        <v>0.1279261406217721</v>
       </c>
       <c r="H26" t="n">
-        <v>2.369393303480153</v>
+        <v>1.336119885022867</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4328479408470409</v>
+        <v>0.2236818631073505</v>
       </c>
       <c r="J26" t="n">
-        <v>1.205344853745697</v>
+        <v>0.146473623261822</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8190964255311634</v>
+        <v>0.1850777264064166</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8903840575320331</v>
+        <v>0.2771891772216766</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5120953383106744</v>
+        <v>0.3576676398862106</v>
       </c>
       <c r="N26" t="n">
-        <v>1.025437799516802</v>
+        <v>1.012409011679812</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5338962970460488</v>
+        <v>0.3728942917902502</v>
       </c>
       <c r="P26" t="n">
-        <v>124.6769778545563</v>
+        <v>126.1126044159975</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.0284031715166</v>
+        <v>200.4640297329577</v>
       </c>
     </row>
   </sheetData>
